--- a/nostra/OperatingModelTemplate.xlsx
+++ b/nostra/OperatingModelTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="460" windowWidth="10000" windowHeight="18380" activeTab="1"/>
+    <workbookView xWindow="15400" yWindow="460" windowWidth="10000" windowHeight="18380"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -2975,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -3893,7 +3893,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R410"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="138" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="138" workbookViewId="0">
       <selection activeCell="A13" sqref="A1:XFD13"/>
     </sheetView>
   </sheetViews>
